--- a/manuscript/result.xlsx
+++ b/manuscript/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzha0247/Dropbox (Sydney Uni)/YunweiZhang/WeeklyProgress/R code/benchmarking/202104summaryresult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE619C3-C3D7-C542-AD7D-9B127782F672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8413BF-0449-6145-A546-CB80D113D582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{C66A31E0-EAEE-DD4D-9381-FD896DA27701}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="6" xr2:uid="{C66A31E0-EAEE-DD4D-9381-FD896DA27701}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="167">
   <si>
     <t>method</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>bs</t>
-  </si>
-  <si>
-    <t>ibs</t>
   </si>
   <si>
     <t>auc</t>
@@ -917,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831553D-931A-644F-A6B9-4D93C147A9E8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -941,57 +938,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="J1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>161</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>165</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>166</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1839,7 +1836,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1892,7 +1889,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2080,36 +2077,36 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -2140,7 +2137,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -2205,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2">
         <v>0.27629999999999999</v>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2264,10 +2261,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2">
         <v>0.39389999999999997</v>
@@ -2298,7 +2295,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -2422,10 +2419,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
         <v>0.66700000000000004</v>
@@ -2453,10 +2450,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2">
         <v>0.73219999999999996</v>
@@ -2484,10 +2481,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
         <v>0.72089999999999999</v>
@@ -2515,10 +2512,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2">
         <v>0.56410000000000005</v>
@@ -2546,10 +2543,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2">
         <v>0.56410000000000005</v>
@@ -2577,10 +2574,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2">
         <v>0.42499999999999999</v>
@@ -2629,18 +2626,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2668,7 +2665,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2696,7 +2693,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2752,7 +2749,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2794,7 +2791,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2808,7 +2805,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2836,7 +2833,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2878,7 +2875,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2906,7 +2903,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2945,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
@@ -2954,25 +2951,25 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3397,7 +3394,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3432,7 +3429,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3467,7 +3464,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3502,7 +3499,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3572,7 +3569,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3622,7 +3619,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3655,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -3691,10 +3688,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2">
         <v>0.27629999999999999</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -3768,7 +3765,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -3779,10 +3776,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <v>0.66700000000000004</v>
@@ -3790,10 +3787,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2">
         <v>0.73219999999999996</v>
@@ -3801,10 +3798,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2">
         <v>0.72089999999999999</v>
@@ -3812,10 +3809,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2">
         <v>0.56410000000000005</v>
@@ -3823,10 +3820,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2">
         <v>0.56410000000000005</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2">
         <v>0.42499999999999999</v>
@@ -4196,28 +4193,28 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
         <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
         <v>43</v>
@@ -4225,7 +4222,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4246,27 +4243,27 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4348,7 +4345,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4360,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4459,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3646ED-7C68-6F46-A179-7B3207A83F92}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4473,14 +4470,13 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4502,170 +4498,149 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>134</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>135</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>136</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -4682,328 +4657,289 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>142</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>143</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>147</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>140</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>141</v>
-      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -5020,9 +4956,6 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
         <v>1</v>
       </c>
     </row>
@@ -5059,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -5092,22 +5025,22 @@
         <v>31</v>
       </c>
       <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -5614,27 +5547,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>3323</v>
@@ -5646,15 +5579,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>3323</v>
@@ -5666,15 +5599,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>3323</v>
@@ -5686,15 +5619,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>3323</v>
@@ -5706,15 +5639,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>3323</v>
@@ -5726,15 +5659,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>3323</v>
@@ -5746,15 +5679,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>3323</v>
@@ -5766,15 +5699,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>3323</v>
@@ -5786,15 +5719,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>3323</v>
@@ -5806,15 +5739,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>3323</v>
@@ -5826,15 +5759,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>3323</v>
@@ -5846,15 +5779,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>3323</v>
@@ -5866,15 +5799,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>3323</v>
@@ -5886,15 +5819,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>3323</v>
@@ -5906,15 +5839,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>3323</v>
@@ -5926,15 +5859,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>3323</v>
@@ -5946,15 +5879,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>3323</v>
@@ -5966,15 +5899,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>3323</v>
@@ -5986,15 +5919,15 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>3000</v>
@@ -6006,15 +5939,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>3000</v>
@@ -6026,15 +5959,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -6046,15 +5979,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>3000</v>
@@ -6066,15 +5999,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>3000</v>
@@ -6086,15 +6019,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>3000</v>
@@ -6106,15 +6039,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>3000</v>
@@ -6126,15 +6059,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -6146,15 +6079,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>3000</v>
@@ -6166,15 +6099,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>3000</v>
@@ -6186,15 +6119,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>3000</v>
@@ -6206,15 +6139,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>3000</v>
@@ -6226,15 +6159,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>3000</v>
@@ -6246,15 +6179,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>3000</v>
@@ -6266,15 +6199,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>3000</v>
@@ -6286,15 +6219,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>3000</v>
@@ -6306,15 +6239,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>3000</v>
@@ -6326,15 +6259,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>3000</v>
@@ -6346,10 +6279,10 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6366,10 +6299,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6386,10 +6319,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6406,10 +6339,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6426,10 +6359,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6446,10 +6379,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6466,10 +6399,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6486,10 +6419,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6506,10 +6439,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6526,10 +6459,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6546,10 +6479,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6566,10 +6499,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6586,10 +6519,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6606,10 +6539,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6626,10 +6559,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6646,10 +6579,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6666,10 +6599,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -6686,10 +6619,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -6706,10 +6639,10 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -6726,10 +6659,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -6746,10 +6679,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6766,10 +6699,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6786,10 +6719,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -6806,10 +6739,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -6826,10 +6759,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -6846,10 +6779,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -6866,10 +6799,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -6886,10 +6819,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -6906,10 +6839,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6926,10 +6859,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6946,10 +6879,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6966,10 +6899,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6986,10 +6919,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -7006,10 +6939,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -7026,10 +6959,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -7046,10 +6979,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -7066,10 +6999,10 @@
         <v>0.27629999999999999</v>
       </c>
       <c r="E73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -7086,10 +7019,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -7106,10 +7039,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -7126,10 +7059,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -7146,10 +7079,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -7166,10 +7099,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -7186,10 +7119,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -7206,10 +7139,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -7226,10 +7159,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -7246,10 +7179,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -7266,10 +7199,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7286,10 +7219,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7306,10 +7239,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -7326,10 +7259,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7346,10 +7279,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7366,10 +7299,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -7386,10 +7319,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7406,10 +7339,10 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7426,15 +7359,15 @@
         <v>0.59940000000000004</v>
       </c>
       <c r="E91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -7446,15 +7379,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93">
         <v>88</v>
@@ -7466,15 +7399,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94">
         <v>88</v>
@@ -7486,15 +7419,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95">
         <v>88</v>
@@ -7506,15 +7439,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>88</v>
@@ -7526,15 +7459,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97">
         <v>88</v>
@@ -7546,15 +7479,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98">
         <v>88</v>
@@ -7566,15 +7499,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99">
         <v>88</v>
@@ -7586,15 +7519,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>88</v>
@@ -7606,15 +7539,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>88</v>
@@ -7626,15 +7559,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102">
         <v>88</v>
@@ -7646,15 +7579,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103">
         <v>88</v>
@@ -7666,15 +7599,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>88</v>
@@ -7686,15 +7619,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105">
         <v>88</v>
@@ -7706,15 +7639,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106">
         <v>88</v>
@@ -7726,15 +7659,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107">
         <v>88</v>
@@ -7746,15 +7679,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108">
         <v>88</v>
@@ -7766,15 +7699,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>88</v>
@@ -7786,15 +7719,15 @@
         <v>0.39389999999999997</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>41</v>
@@ -7806,15 +7739,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111">
         <v>41</v>
@@ -7826,15 +7759,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B112">
         <v>41</v>
@@ -7846,15 +7779,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B113">
         <v>41</v>
@@ -7866,15 +7799,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114">
         <v>41</v>
@@ -7886,15 +7819,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B115">
         <v>41</v>
@@ -7906,15 +7839,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B116">
         <v>41</v>
@@ -7926,15 +7859,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B117">
         <v>41</v>
@@ -7946,15 +7879,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B118">
         <v>41</v>
@@ -7966,15 +7899,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B119">
         <v>41</v>
@@ -7986,15 +7919,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B120">
         <v>41</v>
@@ -8006,15 +7939,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B121">
         <v>41</v>
@@ -8026,15 +7959,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B122">
         <v>41</v>
@@ -8046,15 +7979,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B123">
         <v>41</v>
@@ -8066,15 +7999,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124">
         <v>41</v>
@@ -8086,15 +8019,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B125">
         <v>41</v>
@@ -8106,15 +8039,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126">
         <v>41</v>
@@ -8126,15 +8059,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B127">
         <v>41</v>
@@ -8146,15 +8079,15 @@
         <v>0.41460000000000002</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B128">
         <v>70</v>
@@ -8166,15 +8099,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B129">
         <v>70</v>
@@ -8186,15 +8119,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B130">
         <v>70</v>
@@ -8206,15 +8139,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B131">
         <v>70</v>
@@ -8226,15 +8159,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B132">
         <v>70</v>
@@ -8246,15 +8179,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B133">
         <v>70</v>
@@ -8266,15 +8199,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B134">
         <v>70</v>
@@ -8286,15 +8219,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135">
         <v>70</v>
@@ -8306,15 +8239,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B136">
         <v>70</v>
@@ -8326,15 +8259,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B137">
         <v>70</v>
@@ -8346,15 +8279,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B138">
         <v>70</v>
@@ -8366,15 +8299,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B139">
         <v>70</v>
@@ -8386,15 +8319,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B140">
         <v>70</v>
@@ -8406,15 +8339,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B141">
         <v>70</v>
@@ -8426,15 +8359,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B142">
         <v>70</v>
@@ -8446,15 +8379,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B143">
         <v>70</v>
@@ -8466,15 +8399,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F143" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B144">
         <v>70</v>
@@ -8486,15 +8419,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E144" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F144" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B145">
         <v>70</v>
@@ -8506,15 +8439,15 @@
         <v>0.45710000000000001</v>
       </c>
       <c r="E145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B146">
         <v>45</v>
@@ -8526,15 +8459,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F146" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B147">
         <v>45</v>
@@ -8546,15 +8479,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E147" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B148">
         <v>45</v>
@@ -8566,15 +8499,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B149">
         <v>45</v>
@@ -8586,15 +8519,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150">
         <v>45</v>
@@ -8606,15 +8539,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151">
         <v>45</v>
@@ -8626,15 +8559,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E151" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152">
         <v>45</v>
@@ -8646,15 +8579,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B153">
         <v>45</v>
@@ -8666,15 +8599,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B154">
         <v>45</v>
@@ -8686,15 +8619,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155">
         <v>45</v>
@@ -8706,15 +8639,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B156">
         <v>45</v>
@@ -8726,15 +8659,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B157">
         <v>45</v>
@@ -8746,15 +8679,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B158">
         <v>45</v>
@@ -8766,15 +8699,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B159">
         <v>45</v>
@@ -8786,15 +8719,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B160">
         <v>45</v>
@@ -8806,15 +8739,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B161">
         <v>45</v>
@@ -8826,15 +8759,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B162">
         <v>45</v>
@@ -8846,15 +8779,15 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B163">
         <v>45</v>
@@ -8866,10 +8799,10 @@
         <v>0.42220000000000002</v>
       </c>
       <c r="E163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -8886,10 +8819,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -8906,10 +8839,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F165" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -8926,10 +8859,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -8946,10 +8879,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -8966,10 +8899,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F168" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -8986,10 +8919,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F169" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -9006,10 +8939,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -9026,10 +8959,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F171" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -9046,10 +8979,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -9066,10 +8999,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -9086,10 +9019,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F174" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -9106,10 +9039,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -9126,10 +9059,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F176" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -9146,10 +9079,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F177" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -9166,10 +9099,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F178" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -9186,10 +9119,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E179" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F179" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -9206,10 +9139,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E180" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F180" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -9226,10 +9159,10 @@
         <v>0.70620000000000005</v>
       </c>
       <c r="E181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -9246,10 +9179,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -9266,10 +9199,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E183" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -9286,10 +9219,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F184" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -9306,10 +9239,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -9326,10 +9259,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F186" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -9346,10 +9279,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F187" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -9366,10 +9299,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F188" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -9386,10 +9319,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F189" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -9406,10 +9339,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -9426,10 +9359,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F191" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -9446,10 +9379,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F192" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9466,10 +9399,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F193" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9486,10 +9419,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F194" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -9506,10 +9439,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F195" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9526,10 +9459,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F196" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -9546,10 +9479,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F197" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -9566,10 +9499,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E198" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F198" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -9586,10 +9519,10 @@
         <v>0.37930000000000003</v>
       </c>
       <c r="E199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
